--- a/_testdata/cognition_map_test_multiple_root.xlsx
+++ b/_testdata/cognition_map_test_multiple_root.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B701C73-A941-46AB-9145-AF8906FDBF46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67660F4-271D-4BC9-ADF9-0AE49EE0198A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>延伸知识</t>
   </si>
@@ -114,6 +114,14 @@
   </si>
   <si>
     <t>[YP02]语文积累2</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>[YP]语文</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>[YP11]语文</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -716,7 +724,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="19">
       <alignment vertical="center"/>
@@ -735,9 +743,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="19" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="41">
@@ -1117,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1178,22 +1183,17 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1201,22 +1201,22 @@
     </row>
     <row r="6" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1224,10 +1224,10 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
@@ -1236,11 +1236,23 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
